--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GammaFiber2F-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GammaFiber2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9783807829387057</v>
+        <v>0.9783807829387059</v>
       </c>
       <c r="D15">
         <v>1.250451318232327</v>
@@ -1040,13 +1040,13 @@
         <v>0.926489151778749</v>
       </c>
       <c r="F15">
-        <v>0.9783807829387057</v>
+        <v>0.9783807829387059</v>
       </c>
       <c r="G15">
         <v>1.114291107181111</v>
       </c>
       <c r="H15">
-        <v>0.7886986867608023</v>
+        <v>0.7886986867608025</v>
       </c>
       <c r="I15">
         <v>0.9311999269302119</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9982518289703178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.36567837976243</v>
+      </c>
+      <c r="D16">
+        <v>0.3828158769166418</v>
+      </c>
+      <c r="E16">
+        <v>1.050977968836757</v>
+      </c>
+      <c r="F16">
+        <v>1.36567837976243</v>
+      </c>
+      <c r="G16">
+        <v>0.6858759666533483</v>
+      </c>
+      <c r="H16">
+        <v>1.133475496403593</v>
+      </c>
+      <c r="I16">
+        <v>1.13367014862962</v>
+      </c>
+      <c r="J16">
+        <v>0.3828158769166418</v>
+      </c>
+      <c r="K16">
+        <v>0.7168969228766995</v>
+      </c>
+      <c r="L16">
+        <v>1.041287651319565</v>
+      </c>
+      <c r="M16">
+        <v>0.958748972867065</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.36567837976243</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW15.xlsx
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9783807829387059</v>
+        <v>0.9783807829387057</v>
       </c>
       <c r="D15">
         <v>1.250451318232327</v>
@@ -1043,13 +1043,13 @@
         <v>0.926489151778749</v>
       </c>
       <c r="F15">
-        <v>0.9783807829387059</v>
+        <v>0.9783807829387057</v>
       </c>
       <c r="G15">
         <v>1.114291107181111</v>
       </c>
       <c r="H15">
-        <v>0.7886986867608025</v>
+        <v>0.7886986867608023</v>
       </c>
       <c r="I15">
         <v>0.9311999269302119</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5465840000000001</v>
+        <v>1.36567837976243</v>
       </c>
       <c r="D10">
-        <v>0.4161720000000006</v>
+        <v>0.3828158769166418</v>
       </c>
       <c r="E10">
-        <v>1.322248000000002</v>
+        <v>1.050977968836757</v>
       </c>
       <c r="F10">
-        <v>0.5465840000000001</v>
+        <v>1.36567837976243</v>
       </c>
       <c r="G10">
-        <v>0.4088119999999999</v>
+        <v>0.6858759666533483</v>
       </c>
       <c r="H10">
-        <v>3.306859999999999</v>
+        <v>1.133475496403593</v>
       </c>
       <c r="I10">
-        <v>1.160432000000001</v>
+        <v>1.13367014862962</v>
       </c>
       <c r="J10">
-        <v>0.4161720000000006</v>
+        <v>0.3828158769166418</v>
       </c>
       <c r="K10">
-        <v>0.8692100000000011</v>
+        <v>0.7168969228766995</v>
       </c>
       <c r="L10">
-        <v>0.7078970000000007</v>
+        <v>1.041287651319565</v>
       </c>
       <c r="M10">
-        <v>1.193518</v>
+        <v>0.958748972867065</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.9765742537872838</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.8508376388969759</v>
       </c>
       <c r="E11">
-        <v>1.54</v>
+        <v>1.070428173496901</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.9765742537872838</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.8692412970665807</v>
       </c>
       <c r="H11">
-        <v>5.08555</v>
+        <v>1.263320494963714</v>
       </c>
       <c r="I11">
-        <v>1.28</v>
+        <v>1.029135551878591</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.8508376388969759</v>
       </c>
       <c r="K11">
-        <v>0.77</v>
+        <v>0.9606329061969385</v>
       </c>
       <c r="L11">
-        <v>0.485</v>
+        <v>0.9686035799921112</v>
       </c>
       <c r="M11">
-        <v>1.350925</v>
+        <v>1.009922901681674</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5456073000960006</v>
+        <v>0.9746220448296159</v>
       </c>
       <c r="D12">
-        <v>0.4141347309568011</v>
+        <v>0.8522888801302883</v>
       </c>
       <c r="E12">
-        <v>1.322606180147202</v>
+        <v>1.070690758119042</v>
       </c>
       <c r="F12">
-        <v>0.5456073000960006</v>
+        <v>0.9746220448296159</v>
       </c>
       <c r="G12">
-        <v>0.4101720221696006</v>
+        <v>0.8702029211470393</v>
       </c>
       <c r="H12">
-        <v>3.307962592767999</v>
+        <v>1.262646001209882</v>
       </c>
       <c r="I12">
-        <v>1.160864543129604</v>
+        <v>1.028662307964872</v>
       </c>
       <c r="J12">
-        <v>0.4141347309568011</v>
+        <v>0.8522888801302883</v>
       </c>
       <c r="K12">
-        <v>0.8683704555520013</v>
+        <v>0.9614898191246652</v>
       </c>
       <c r="L12">
-        <v>0.7069888778240009</v>
+        <v>0.9680559319771405</v>
       </c>
       <c r="M12">
-        <v>1.193557894877868</v>
+        <v>1.009852152233457</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9880549741619945</v>
+        <v>0.9767318454647269</v>
       </c>
       <c r="D13">
-        <v>0.992829067359612</v>
+        <v>0.8505263712862053</v>
       </c>
       <c r="E13">
-        <v>0.9953528709887164</v>
+        <v>1.070810500218904</v>
       </c>
       <c r="F13">
-        <v>0.9880549741619945</v>
+        <v>0.9767318454647269</v>
       </c>
       <c r="G13">
-        <v>0.9887546906017016</v>
+        <v>0.8692184703559986</v>
       </c>
       <c r="H13">
-        <v>0.9972423266463194</v>
+        <v>1.261613160905498</v>
       </c>
       <c r="I13">
-        <v>0.9925918642535275</v>
+        <v>1.029094525074254</v>
       </c>
       <c r="J13">
-        <v>0.992829067359612</v>
+        <v>0.8505263712862053</v>
       </c>
       <c r="K13">
-        <v>0.9940909691741642</v>
+        <v>0.9606684357525548</v>
       </c>
       <c r="L13">
-        <v>0.9910729716680794</v>
+        <v>0.9687001406086408</v>
       </c>
       <c r="M13">
-        <v>0.9924709656686453</v>
+        <v>1.009665812217598</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9466312067446748</v>
+        <v>0.5465840000000001</v>
       </c>
       <c r="D14">
-        <v>1.078602224028307</v>
+        <v>0.4161720000000006</v>
       </c>
       <c r="E14">
-        <v>0.9959429379799353</v>
+        <v>1.322248000000002</v>
       </c>
       <c r="F14">
-        <v>0.9466312067446748</v>
+        <v>0.5465840000000001</v>
       </c>
       <c r="G14">
-        <v>1.028897430557631</v>
+        <v>0.4088119999999999</v>
       </c>
       <c r="H14">
-        <v>1.005351800859394</v>
+        <v>3.306859999999999</v>
       </c>
       <c r="I14">
-        <v>0.971319758758452</v>
+        <v>1.160432000000001</v>
       </c>
       <c r="J14">
-        <v>1.078602224028307</v>
+        <v>0.4161720000000006</v>
       </c>
       <c r="K14">
-        <v>1.037272581004121</v>
+        <v>0.8692100000000011</v>
       </c>
       <c r="L14">
-        <v>0.9919518938743979</v>
+        <v>0.7078970000000007</v>
       </c>
       <c r="M14">
-        <v>1.004457559821399</v>
+        <v>1.193518</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9783807829387057</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>1.250451318232327</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.926489151778749</v>
+        <v>1.54</v>
       </c>
       <c r="F15">
-        <v>0.9783807829387057</v>
+        <v>0.2</v>
       </c>
       <c r="G15">
-        <v>1.114291107181111</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.7886986867608023</v>
+        <v>5.08555</v>
       </c>
       <c r="I15">
-        <v>0.9311999269302119</v>
+        <v>1.28</v>
       </c>
       <c r="J15">
-        <v>1.250451318232327</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.088470235005538</v>
+        <v>0.77</v>
       </c>
       <c r="L15">
-        <v>1.033425508972122</v>
+        <v>0.485</v>
       </c>
       <c r="M15">
-        <v>0.9982518289703178</v>
+        <v>1.350925</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.36567837976243</v>
+        <v>0.5456073000960006</v>
       </c>
       <c r="D16">
-        <v>0.3828158769166418</v>
+        <v>0.4141347309568011</v>
       </c>
       <c r="E16">
-        <v>1.050977968836757</v>
+        <v>1.322606180147202</v>
       </c>
       <c r="F16">
-        <v>1.36567837976243</v>
+        <v>0.5456073000960006</v>
       </c>
       <c r="G16">
-        <v>0.6858759666533483</v>
+        <v>0.4101720221696006</v>
       </c>
       <c r="H16">
-        <v>1.133475496403593</v>
+        <v>3.307962592767999</v>
       </c>
       <c r="I16">
-        <v>1.13367014862962</v>
+        <v>1.160864543129604</v>
       </c>
       <c r="J16">
-        <v>0.3828158769166418</v>
+        <v>0.4141347309568011</v>
       </c>
       <c r="K16">
-        <v>0.7168969228766995</v>
+        <v>0.8683704555520013</v>
       </c>
       <c r="L16">
-        <v>1.041287651319565</v>
+        <v>0.7069888778240009</v>
       </c>
       <c r="M16">
-        <v>0.958748972867065</v>
+        <v>1.193557894877868</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9880549741619945</v>
+      </c>
+      <c r="D17">
+        <v>0.992829067359612</v>
+      </c>
+      <c r="E17">
+        <v>0.9953528709887164</v>
+      </c>
+      <c r="F17">
+        <v>0.9880549741619945</v>
+      </c>
+      <c r="G17">
+        <v>0.9887546906017016</v>
+      </c>
+      <c r="H17">
+        <v>0.9972423266463194</v>
+      </c>
+      <c r="I17">
+        <v>0.9925918642535275</v>
+      </c>
+      <c r="J17">
+        <v>0.992829067359612</v>
+      </c>
+      <c r="K17">
+        <v>0.9940909691741642</v>
+      </c>
+      <c r="L17">
+        <v>0.9910729716680794</v>
+      </c>
+      <c r="M17">
+        <v>0.9924709656686453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9466312067446748</v>
+      </c>
+      <c r="D18">
+        <v>1.078602224028307</v>
+      </c>
+      <c r="E18">
+        <v>0.9959429379799353</v>
+      </c>
+      <c r="F18">
+        <v>0.9466312067446748</v>
+      </c>
+      <c r="G18">
+        <v>1.028897430557631</v>
+      </c>
+      <c r="H18">
+        <v>1.005351800859394</v>
+      </c>
+      <c r="I18">
+        <v>0.971319758758452</v>
+      </c>
+      <c r="J18">
+        <v>1.078602224028307</v>
+      </c>
+      <c r="K18">
+        <v>1.037272581004121</v>
+      </c>
+      <c r="L18">
+        <v>0.9919518938743979</v>
+      </c>
+      <c r="M18">
+        <v>1.004457559821399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9783807829387059</v>
+      </c>
+      <c r="D19">
+        <v>1.250451318232327</v>
+      </c>
+      <c r="E19">
+        <v>0.926489151778749</v>
+      </c>
+      <c r="F19">
+        <v>0.9783807829387059</v>
+      </c>
+      <c r="G19">
+        <v>1.114291107181111</v>
+      </c>
+      <c r="H19">
+        <v>0.7886986867608025</v>
+      </c>
+      <c r="I19">
+        <v>0.9311999269302119</v>
+      </c>
+      <c r="J19">
+        <v>1.250451318232327</v>
+      </c>
+      <c r="K19">
+        <v>1.088470235005538</v>
+      </c>
+      <c r="L19">
+        <v>1.033425508972122</v>
+      </c>
+      <c r="M19">
+        <v>0.9982518289703178</v>
       </c>
     </row>
   </sheetData>
